--- a/JFWM2025_Program.xlsx
+++ b/JFWM2025_Program.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18795" yWindow="0" windowWidth="14385" windowHeight="6135"/>
+    <workbookView xWindow="19740" yWindow="0" windowWidth="14385" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="JFWM2024" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Japaneses academics</t>
   </si>
@@ -303,6 +303,10 @@
 Roundtable Discussion
 16:00-17:30
 BXXX</t>
+  </si>
+  <si>
+    <t>Lunch break
+11:30-14:00</t>
   </si>
 </sst>
 </file>
@@ -660,10 +664,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -689,105 +689,127 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -797,37 +819,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -835,9 +826,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -850,42 +838,58 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1214,8 +1218,8 @@
   </sheetPr>
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,24 +1239,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="70" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="23" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="21" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="19" t="s">
         <v>42</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -1268,8 +1272,8 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="18"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="16"/>
       <c r="I2" s="13"/>
       <c r="J2" s="10"/>
       <c r="K2" s="6"/>
@@ -1284,14 +1288,14 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="96" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="97"/>
-      <c r="J3" s="26"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="44" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1304,12 +1308,12 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="26"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="25"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="87"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1320,194 +1324,194 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="26"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="87"/>
+      <c r="L5" s="45"/>
     </row>
     <row r="6" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.38541666666666702</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="72"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="26"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="87"/>
+      <c r="L6" s="45"/>
     </row>
     <row r="7" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="26"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="87"/>
+      <c r="L7" s="45"/>
     </row>
     <row r="8" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.40625</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="76"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="26"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="87"/>
+      <c r="L8" s="45"/>
     </row>
     <row r="9" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.41666666666666602</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="77"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="98" t="s">
+      <c r="G9" s="31"/>
+      <c r="H9" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="73"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="66" t="s">
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="87"/>
+      <c r="L9" s="45"/>
     </row>
     <row r="10" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.42708333333333298</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80" t="s">
+      <c r="C10" s="74"/>
+      <c r="D10" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="51" t="s">
+      <c r="E10" s="73"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="48" t="s">
+      <c r="J10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="87"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="45"/>
     </row>
     <row r="11" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="87"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="45"/>
     </row>
     <row r="12" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.44791666666666602</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="87"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="45"/>
     </row>
     <row r="13" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="87"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="45"/>
     </row>
     <row r="14" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="87"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="45"/>
     </row>
     <row r="15" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="87"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="45"/>
     </row>
     <row r="16" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1516,296 +1520,296 @@
       <c r="B16" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="55"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
       <c r="G16" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="54"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="87"/>
+      <c r="H16" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="45"/>
     </row>
     <row r="17" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.5</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="87"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="87"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="87"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="45"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="87"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="45"/>
     </row>
     <row r="21" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.57291666666666596</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="87"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="87"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.593749999999999</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="87"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="45"/>
     </row>
     <row r="24" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="87"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="45"/>
     </row>
     <row r="25" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="87"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="45"/>
     </row>
     <row r="26" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.624999999999999</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="87"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="45"/>
     </row>
     <row r="27" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.63541666666666596</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="88" t="s">
+      <c r="D27" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="81"/>
-      <c r="F27" s="48" t="s">
+      <c r="E27" s="47"/>
+      <c r="F27" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="87"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="45"/>
     </row>
     <row r="28" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="87"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="45"/>
     </row>
     <row r="29" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.656249999999999</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="87"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="45"/>
     </row>
     <row r="30" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="87"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="45"/>
     </row>
     <row r="31" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="49"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="87"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="27"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="45"/>
     </row>
     <row r="32" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.687499999999999</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="50"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="28"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="87"/>
+      <c r="L32" s="45"/>
     </row>
     <row r="33" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -1816,9 +1820,9 @@
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
       <c r="K33" s="10"/>
       <c r="L33" s="11"/>
     </row>
@@ -1830,9 +1834,9 @@
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
       <c r="K34" s="10"/>
       <c r="L34" s="11"/>
     </row>
@@ -1851,16 +1855,16 @@
     </row>
     <row r="36" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="92" t="s">
+      <c r="C36" s="60"/>
+      <c r="D36" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="24" t="s">
+      <c r="E36" s="25"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="22" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1870,113 +1874,111 @@
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="22"/>
+      <c r="D37" s="20"/>
       <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="G38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="22"/>
-      <c r="G39" s="19"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="20"/>
+      <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>0.375</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="91" t="s">
+      <c r="B40" s="83"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="19"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>0.38541666666666702</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="19"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="19"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>0.40625</v>
       </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="19"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>0.41666666666666602</v>
       </c>
-      <c r="B44" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="19"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>0.42708333333333298</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="19"/>
+      <c r="B45" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="31"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="17"/>
     </row>
     <row r="46" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>0.4375</v>
       </c>
-      <c r="B46" s="52"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="93" t="s">
+      <c r="B46" s="57"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="54" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1984,58 +1986,58 @@
       <c r="A47" s="4">
         <v>0.44791666666666602</v>
       </c>
-      <c r="B47" s="52"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="27"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="31"/>
     </row>
     <row r="48" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B48" s="52"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="27"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="31"/>
     </row>
     <row r="49" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>0.46875</v>
       </c>
-      <c r="B49" s="53"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="27"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="31"/>
     </row>
     <row r="50" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B50" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="28"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="35" t="s">
+      <c r="B51" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="47"/>
+      <c r="D51" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="93" t="s">
+      <c r="E51" s="25"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="54" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2043,247 +2045,277 @@
       <c r="A52" s="4">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="27"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="31"/>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>0.5</v>
       </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="27"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="31"/>
     </row>
     <row r="54" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="27"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="31"/>
     </row>
     <row r="55" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>0.55208333333333337</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="27"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="31"/>
     </row>
     <row r="56" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>0.5625</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="20"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="18"/>
     </row>
     <row r="57" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>0.57291666666666596</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="20"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="18"/>
     </row>
     <row r="58" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="20"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="18"/>
     </row>
     <row r="59" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>0.593749999999999</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="20"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="18"/>
     </row>
     <row r="60" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="20"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="18"/>
     </row>
     <row r="61" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="20"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="18"/>
     </row>
     <row r="62" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>0.624999999999999</v>
       </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="20"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="18"/>
     </row>
     <row r="63" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>0.63541666666666596</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="20"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="18"/>
     </row>
     <row r="64" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="20"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="18"/>
     </row>
     <row r="65" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>0.656249999999999</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="20"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="18"/>
     </row>
     <row r="66" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="26"/>
-      <c r="G66" s="20"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="18"/>
     </row>
     <row r="67" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B67" s="28"/>
-      <c r="C67" s="29"/>
-      <c r="G67" s="20"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="43"/>
+      <c r="G67" s="18"/>
     </row>
     <row r="68" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C68" s="31"/>
-      <c r="G68" s="20"/>
+      <c r="C68" s="87"/>
+      <c r="G68" s="18"/>
     </row>
     <row r="69" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>0.69791666666666663</v>
       </c>
-      <c r="B69" s="27"/>
-      <c r="C69" s="26"/>
-      <c r="G69" s="20"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="25"/>
+      <c r="G69" s="18"/>
     </row>
     <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B70" s="27"/>
-      <c r="C70" s="26"/>
-      <c r="G70" s="20"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="25"/>
+      <c r="G70" s="18"/>
     </row>
     <row r="71" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>0.71875</v>
       </c>
-      <c r="B71" s="27"/>
-      <c r="C71" s="26"/>
-      <c r="G71" s="20"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="25"/>
+      <c r="G71" s="18"/>
     </row>
     <row r="72" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>0.72916666666666663</v>
       </c>
-      <c r="B72" s="27"/>
-      <c r="C72" s="26"/>
-      <c r="G72" s="20"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="25"/>
+      <c r="G72" s="18"/>
     </row>
     <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="41"/>
+      <c r="C74" s="93"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="60" t="s">
+      <c r="B75" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="61"/>
+      <c r="C75" s="96"/>
     </row>
     <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="39"/>
+      <c r="C76" s="91"/>
     </row>
     <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="H3:J8"/>
-    <mergeCell ref="H16:J19"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="G51:G55"/>
+    <mergeCell ref="H16:J22"/>
+    <mergeCell ref="D51:F55"/>
+    <mergeCell ref="B51:C55"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D56:F66"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="B56:C67"/>
+    <mergeCell ref="B68:C72"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D10:F15"/>
+    <mergeCell ref="G5:G15"/>
+    <mergeCell ref="G20:G30"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="B16:C19"/>
+    <mergeCell ref="D16:F19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="E20:E25"/>
+    <mergeCell ref="B10:C15"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="L3:L32"/>
     <mergeCell ref="F27:F32"/>
     <mergeCell ref="F20:F25"/>
@@ -2292,40 +2324,13 @@
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="G46:G50"/>
     <mergeCell ref="H10:H15"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="H20:J31"/>
+    <mergeCell ref="H23:J34"/>
     <mergeCell ref="K9:K31"/>
-    <mergeCell ref="B16:C19"/>
-    <mergeCell ref="D16:F19"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="E20:E25"/>
-    <mergeCell ref="B10:C15"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D10:F15"/>
-    <mergeCell ref="G5:G15"/>
-    <mergeCell ref="G20:G30"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="B56:C67"/>
-    <mergeCell ref="B68:C72"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="D51:F54"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="B50:C55"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D55:F65"/>
-    <mergeCell ref="G51:G55"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="H3:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="I10:I15"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="37" orientation="landscape" r:id="rId1"/>

--- a/JFWM2025_Program.xlsx
+++ b/JFWM2025_Program.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19740" yWindow="0" windowWidth="14385" windowHeight="6135"/>
+    <workbookView xWindow="20685" yWindow="0" windowWidth="14385" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="JFWM2024" sheetId="2" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" dpi="120" codePage="1252"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>Japaneses academics</t>
   </si>
@@ -147,12 +146,6 @@
 CXXX - Group : C</t>
   </si>
   <si>
-    <t>90' Tutorial - 15:00 - 16:30
-H. Sawada
-Image processing for Mechatronics
-CXXX - Group : A</t>
-  </si>
-  <si>
     <t>90' Lecture
 10:00 - 11:30
 T. Fujita, University of Hyogo, JP
@@ -187,11 +180,6 @@
 H. Sawada
 Image processing for Mechatronics
 CXXX - Group : B</t>
-  </si>
-  <si>
-    <t>Challenge: Start
-15:00 - 16:30
-Groups : B, C</t>
   </si>
   <si>
     <t>Challenge
@@ -307,6 +295,30 @@
   <si>
     <t>Lunch break
 11:30-14:00</t>
+  </si>
+  <si>
+    <t>Challenge: Start
+15:00 - 16:30
+Groups : A, B, C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Challenge: Start
+10:15 - 11:45
+Groups : B, C
+</t>
+  </si>
+  <si>
+    <t>90' Tutorial - 10:15 - 11:45
+H. Sawada
+Image processing for Mechatronics
+CXXX - Group : A</t>
+  </si>
+  <si>
+    <t>45' Keynote
+9:00 - 9:45
+H. Sawada
+AI
+BXXX</t>
   </si>
 </sst>
 </file>
@@ -627,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -683,133 +695,189 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -819,76 +887,38 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1216,10 +1246,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,40 +1260,42 @@
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" customWidth="1"/>
-    <col min="7" max="7" width="70" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="63" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="59" t="s">
+    <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="96"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.34375</v>
       </c>
@@ -1273,13 +1305,14 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="20"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="20"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -1289,17 +1322,18 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="20"/>
-      <c r="H3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="44" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="98"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="84" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.36458333333333331</v>
       </c>
@@ -1309,13 +1343,14 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="45"/>
-    </row>
-    <row r="5" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="20"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="85"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.375</v>
       </c>
@@ -1324,376 +1359,402 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="45"/>
-    </row>
-    <row r="6" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="100"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="85"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.38541666666666702</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="45"/>
-    </row>
-    <row r="7" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="93"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="85"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="64"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="45"/>
-    </row>
-    <row r="8" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="85"/>
+    </row>
+    <row r="8" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.40625</v>
       </c>
-      <c r="B8" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="66"/>
+      <c r="B8" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="82"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="45"/>
-    </row>
-    <row r="9" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="85"/>
+    </row>
+    <row r="9" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.41666666666666602</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="41" t="s">
+      <c r="G9" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="72" t="s">
+      <c r="H9" s="79"/>
+      <c r="I9" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="79"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="45"/>
-    </row>
-    <row r="10" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="85"/>
+    </row>
+    <row r="10" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.42708333333333298</v>
       </c>
-      <c r="B10" s="73" t="s">
-        <v>24</v>
+      <c r="B10" s="64" t="s">
+        <v>23</v>
       </c>
       <c r="C10" s="74"/>
-      <c r="D10" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="56" t="s">
+      <c r="D10" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="45"/>
-    </row>
-    <row r="11" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="25"/>
+      <c r="M10" s="85"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="45"/>
-    </row>
-    <row r="12" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="85"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.44791666666666602</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="45"/>
-    </row>
-    <row r="13" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="85"/>
+    </row>
+    <row r="13" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="45"/>
-    </row>
-    <row r="14" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="85"/>
+    </row>
+    <row r="14" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="45"/>
-    </row>
-    <row r="15" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="85"/>
+    </row>
+    <row r="15" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="45"/>
-    </row>
-    <row r="16" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="85"/>
+    </row>
+    <row r="16" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="45"/>
-    </row>
-    <row r="17" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="26"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="85"/>
+    </row>
+    <row r="17" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.5</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="45"/>
-    </row>
-    <row r="18" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="37"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="85"/>
+    </row>
+    <row r="18" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="45"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="37"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="85"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="49"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="30"/>
       <c r="K19" s="31"/>
-      <c r="L19" s="45"/>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="98"/>
+      <c r="M19" s="85"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="25"/>
+      <c r="E20" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="62"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="45"/>
-    </row>
-    <row r="21" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="98"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="85"/>
+    </row>
+    <row r="21" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.57291666666666596</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="25"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="45"/>
-    </row>
-    <row r="22" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="98"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="85"/>
+    </row>
+    <row r="22" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="45"/>
-    </row>
-    <row r="23" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="46"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="85"/>
+    </row>
+    <row r="23" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.593749999999999</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="45"/>
-    </row>
-    <row r="24" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="46"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="85"/>
+    </row>
+    <row r="24" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="45"/>
-    </row>
-    <row r="25" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="46"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="85"/>
+    </row>
+    <row r="25" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="45"/>
-    </row>
-    <row r="26" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="47"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="85"/>
+    </row>
+    <row r="26" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.624999999999999</v>
       </c>
@@ -1702,116 +1763,119 @@
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="45"/>
-    </row>
-    <row r="27" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="25"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="85"/>
+    </row>
+    <row r="27" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.63541666666666596</v>
       </c>
-      <c r="B27" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="45"/>
-    </row>
-    <row r="28" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="85"/>
+    </row>
+    <row r="28" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="45"/>
-    </row>
-    <row r="29" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="87"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="85"/>
+    </row>
+    <row r="29" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.656249999999999</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="45"/>
-    </row>
-    <row r="30" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="87"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="85"/>
+    </row>
+    <row r="30" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="45"/>
-    </row>
-    <row r="31" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="87"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="85"/>
+    </row>
+    <row r="31" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="27"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="45"/>
-    </row>
-    <row r="32" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="87"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="49"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="85"/>
+    </row>
+    <row r="32" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.687499999999999</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="28"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="45"/>
-    </row>
-    <row r="33" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="88"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="50"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="85"/>
+    </row>
+    <row r="33" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.69791666666666596</v>
       </c>
@@ -1820,13 +1884,14 @@
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="11"/>
-    </row>
-    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="8"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.70833333333333204</v>
       </c>
@@ -1834,13 +1899,14 @@
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H34" s="8"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -1852,439 +1918,515 @@
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
-    </row>
-    <row r="36" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
-      <c r="B36" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="55"/>
+      <c r="D36" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="33"/>
+    </row>
+    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>0.34375</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="20"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>34</v>
+      <c r="C38" s="48" t="s">
+        <v>32</v>
       </c>
       <c r="D38" s="20"/>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B39" s="83"/>
-      <c r="C39" s="27"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="20"/>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>0.375</v>
       </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="17"/>
-    </row>
-    <row r="41" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="57"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="62"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>0.38541666666666702</v>
       </c>
-      <c r="B41" s="83"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="17"/>
-    </row>
-    <row r="42" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="57"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B42" s="83"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="57"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>0.40625</v>
       </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="58"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>0.41666666666666602</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="17"/>
-    </row>
-    <row r="45" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="25"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>0.42708333333333298</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="17"/>
-    </row>
-    <row r="46" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>0.4375</v>
       </c>
-      <c r="B46" s="57"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="54" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="46"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="74"/>
+    </row>
+    <row r="47" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>0.44791666666666602</v>
       </c>
-      <c r="B47" s="57"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="31"/>
-    </row>
-    <row r="48" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="46"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="33"/>
+    </row>
+    <row r="48" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B48" s="57"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="31"/>
-    </row>
-    <row r="49" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="46"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="33"/>
+    </row>
+    <row r="49" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>0.46875</v>
       </c>
-      <c r="B49" s="57"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="31"/>
-    </row>
-    <row r="50" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="46"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="33"/>
+    </row>
+    <row r="50" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B50" s="58"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="55"/>
-    </row>
-    <row r="51" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="47"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="35"/>
+    </row>
+    <row r="51" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="88" t="s">
+      <c r="C51" s="39"/>
+      <c r="D51" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="54" t="s">
+      <c r="E51" s="26"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="74"/>
+    </row>
+    <row r="52" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B52" s="98"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="31"/>
-    </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="40"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="33"/>
+    </row>
+    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>0.5</v>
       </c>
-      <c r="B53" s="98"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="31"/>
-    </row>
-    <row r="54" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="40"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="33"/>
+      <c r="L53" s="23"/>
+    </row>
+    <row r="54" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B54" s="98"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="31"/>
-    </row>
-    <row r="55" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="40"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="33"/>
+      <c r="L54" s="22"/>
+    </row>
+    <row r="55" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>0.55208333333333337</v>
       </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="31"/>
-    </row>
-    <row r="56" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="32"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="35"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="22"/>
+    </row>
+    <row r="56" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>0.5625</v>
       </c>
-      <c r="B56" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="18"/>
-    </row>
-    <row r="57" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="D56" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="18"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="22"/>
+    </row>
+    <row r="57" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>0.57291666666666596</v>
       </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="18"/>
-    </row>
-    <row r="58" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="25"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="18"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="22"/>
+    </row>
+    <row r="58" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="18"/>
-    </row>
-    <row r="59" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="25"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="18"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="22"/>
+    </row>
+    <row r="59" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>0.593749999999999</v>
       </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="18"/>
-    </row>
-    <row r="60" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="25"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="18"/>
+    </row>
+    <row r="60" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="18"/>
-    </row>
-    <row r="61" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="25"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="18"/>
-    </row>
-    <row r="62" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="25"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="18"/>
+    </row>
+    <row r="62" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>0.624999999999999</v>
       </c>
-      <c r="B62" s="31"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="18"/>
-    </row>
-    <row r="63" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="25"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="18"/>
+    </row>
+    <row r="63" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>0.63541666666666596</v>
       </c>
-      <c r="B63" s="31"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="18"/>
-    </row>
-    <row r="64" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="25"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="18"/>
+    </row>
+    <row r="64" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B64" s="31"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="18"/>
-    </row>
-    <row r="65" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="25"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="18"/>
+    </row>
+    <row r="65" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>0.656249999999999</v>
       </c>
-      <c r="B65" s="31"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="18"/>
-    </row>
-    <row r="66" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="25"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="18"/>
+    </row>
+    <row r="66" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B66" s="31"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="18"/>
-    </row>
-    <row r="67" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="25"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B67" s="55"/>
-      <c r="C67" s="43"/>
-      <c r="G67" s="18"/>
-    </row>
-    <row r="68" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="60"/>
+      <c r="C67" s="34"/>
+      <c r="H67" s="18"/>
+    </row>
+    <row r="68" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B68" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="87"/>
-      <c r="G68" s="18"/>
-    </row>
-    <row r="69" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="62"/>
+      <c r="H68" s="18"/>
+    </row>
+    <row r="69" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>0.69791666666666663</v>
       </c>
-      <c r="B69" s="31"/>
-      <c r="C69" s="25"/>
-      <c r="G69" s="18"/>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="25"/>
+      <c r="C69" s="32"/>
+      <c r="H69" s="18"/>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B70" s="31"/>
-      <c r="C70" s="25"/>
-      <c r="G70" s="18"/>
-    </row>
-    <row r="71" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="25"/>
+      <c r="C70" s="32"/>
+      <c r="H70" s="18"/>
+    </row>
+    <row r="71" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>0.71875</v>
       </c>
-      <c r="B71" s="31"/>
-      <c r="C71" s="25"/>
-      <c r="G71" s="18"/>
-    </row>
-    <row r="72" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="25"/>
+      <c r="C71" s="32"/>
+      <c r="H71" s="18"/>
+    </row>
+    <row r="72" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>0.72916666666666663</v>
       </c>
-      <c r="B72" s="31"/>
-      <c r="C72" s="25"/>
-      <c r="G72" s="18"/>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="92" t="s">
+      <c r="B72" s="25"/>
+      <c r="C72" s="32"/>
+      <c r="H72" s="18"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="93"/>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="95" t="s">
+      <c r="C74" s="44"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="96"/>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="90" t="s">
+      <c r="C75" s="52"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="91"/>
+      <c r="C76" s="42"/>
     </row>
     <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="G51:G55"/>
-    <mergeCell ref="H16:J22"/>
+  <mergeCells count="52">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G46:H50"/>
+    <mergeCell ref="G51:H55"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="I3:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="M3:M32"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="D27:E32"/>
+    <mergeCell ref="D40:F50"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="I23:K34"/>
+    <mergeCell ref="L9:L31"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="G20:H30"/>
+    <mergeCell ref="G16:H19"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G6:H8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D10:F15"/>
+    <mergeCell ref="B16:C19"/>
+    <mergeCell ref="D16:F19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="E20:E25"/>
+    <mergeCell ref="B10:C15"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="B27:C32"/>
+    <mergeCell ref="I16:K22"/>
     <mergeCell ref="D51:F55"/>
     <mergeCell ref="B51:C55"/>
     <mergeCell ref="B76:C76"/>
@@ -2298,53 +2440,8 @@
     <mergeCell ref="C38:C43"/>
     <mergeCell ref="B56:C67"/>
     <mergeCell ref="B68:C72"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D10:F15"/>
-    <mergeCell ref="G5:G15"/>
-    <mergeCell ref="G20:G30"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="B16:C19"/>
-    <mergeCell ref="D16:F19"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="E20:E25"/>
-    <mergeCell ref="B10:C15"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="L3:L32"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="F20:F25"/>
-    <mergeCell ref="D27:E32"/>
-    <mergeCell ref="D40:F50"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G46:G50"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="H23:J34"/>
-    <mergeCell ref="K9:K31"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="H3:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="I10:I15"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="37" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/JFWM2025_Program.xlsx
+++ b/JFWM2025_Program.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20685" yWindow="0" windowWidth="14385" windowHeight="6135"/>
+    <workbookView xWindow="21630" yWindow="0" windowWidth="14385" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="JFWM2024" sheetId="2" r:id="rId1"/>
@@ -182,11 +182,6 @@
 CXXX - Group : B</t>
   </si>
   <si>
-    <t>Challenge
-15:00 - 16:30
-Groups : A, B</t>
-  </si>
-  <si>
     <t>180' Mechatronics Challenge
  Work in Group
 Groups : A, B, C</t>
@@ -197,13 +192,6 @@
 T. Fujita
 IoT modules tutorial using SBC
 CXXX - Group : A</t>
-  </si>
-  <si>
-    <t>90' Practical work
-15:00 - 16:30
-T. Fujita
-IoT modules tutorial using SBC
-CXXX - Group : C</t>
   </si>
   <si>
     <t>Monday Sept 22</t>
@@ -302,12 +290,6 @@
 Groups : A, B, C</t>
   </si>
   <si>
-    <t xml:space="preserve">Challenge: Start
-10:15 - 11:45
-Groups : B, C
-</t>
-  </si>
-  <si>
     <t>90' Tutorial - 10:15 - 11:45
 H. Sawada
 Image processing for Mechatronics
@@ -319,6 +301,24 @@
 H. Sawada
 AI
 BXXX</t>
+  </si>
+  <si>
+    <t>90' Practical work
+10:15 - 11:45
+T. Fujita
+IoT modules tutorial using SBC
+CXXX - Group : C</t>
+  </si>
+  <si>
+    <t>Challenge
+15:00 - 16:30
+Groups : A, B, C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Challenge: Start
+10:15 - 11:45
+Groups : B
+</t>
   </si>
 </sst>
 </file>
@@ -639,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -698,59 +698,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -758,124 +778,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -887,38 +789,146 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1246,10 +1256,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+      <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,42 +1270,44 @@
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" customWidth="1"/>
-    <col min="7" max="7" width="63" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="13" width="23.85546875" customWidth="1"/>
+    <col min="14" max="14" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="76" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="89" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="95" t="s">
+      <c r="H1" s="108"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="96"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="38"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.34375</v>
       </c>
@@ -1306,13 +1318,14 @@
       <c r="F2" s="6"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="20"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -1323,17 +1336,18 @@
       <c r="F3" s="6"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
-      <c r="I3" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="84" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="31"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.36458333333333331</v>
       </c>
@@ -1344,13 +1358,14 @@
       <c r="F4" s="6"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="85"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="20"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="47"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.375</v>
       </c>
@@ -1359,402 +1374,425 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="100"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="85"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="47"/>
+    </row>
+    <row r="6" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.38541666666666702</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="78"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="93"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="85"/>
-    </row>
-    <row r="7" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="66"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="47"/>
+    </row>
+    <row r="7" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="80"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="85"/>
-    </row>
-    <row r="8" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="47"/>
+    </row>
+    <row r="8" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.40625</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="85"/>
-    </row>
-    <row r="9" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="47"/>
+    </row>
+    <row r="9" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.41666666666666602</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="99" t="s">
+      <c r="G9" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="99" t="s">
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="79"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="94" t="s">
+      <c r="K9" s="45"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="85"/>
-    </row>
-    <row r="10" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="47"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.42708333333333298</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="63" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="45" t="s">
+      <c r="E10" s="78"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="85"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="35"/>
+      <c r="N10" s="47"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="85"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="39"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="47"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.44791666666666602</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="85"/>
-    </row>
-    <row r="13" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="39"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="47"/>
+    </row>
+    <row r="13" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="85"/>
-    </row>
-    <row r="14" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="39"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="47"/>
+    </row>
+    <row r="14" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="85"/>
-    </row>
-    <row r="15" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="39"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="47"/>
+    </row>
+    <row r="15" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="85"/>
-    </row>
-    <row r="16" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="39"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="47"/>
+    </row>
+    <row r="16" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="71" t="s">
+      <c r="C16" s="83"/>
+      <c r="D16" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="71" t="s">
+      <c r="E16" s="71"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="85"/>
-    </row>
-    <row r="17" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="71"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="71"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="47"/>
+    </row>
+    <row r="17" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.5</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="85"/>
-    </row>
-    <row r="18" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="47"/>
+    </row>
+    <row r="18" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="85"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="84"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="47"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="85"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="65"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="47"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="70" t="s">
+      <c r="F20" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="85"/>
-    </row>
-    <row r="21" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="109"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="47"/>
+    </row>
+    <row r="21" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.57291666666666596</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="85"/>
-    </row>
-    <row r="22" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="56"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="47"/>
+    </row>
+    <row r="22" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="85"/>
-    </row>
-    <row r="23" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="56"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="47"/>
+    </row>
+    <row r="23" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.593749999999999</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="90" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="85"/>
-    </row>
-    <row r="24" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="56"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="47"/>
+    </row>
+    <row r="24" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="85"/>
-    </row>
-    <row r="25" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="56"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="47"/>
+    </row>
+    <row r="25" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="85"/>
-    </row>
-    <row r="26" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="57"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="47"/>
+    </row>
+    <row r="26" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.624999999999999</v>
       </c>
@@ -1763,119 +1801,122 @@
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="85"/>
-    </row>
-    <row r="27" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="35"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="47"/>
+    </row>
+    <row r="27" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.63541666666666596</v>
       </c>
-      <c r="B27" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="85"/>
-    </row>
-    <row r="28" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="110"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="47"/>
+    </row>
+    <row r="28" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B28" s="87"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="85"/>
-    </row>
-    <row r="29" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="50"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="47"/>
+    </row>
+    <row r="29" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.656249999999999</v>
       </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="85"/>
-    </row>
-    <row r="30" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="50"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="47"/>
+    </row>
+    <row r="30" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B30" s="87"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="85"/>
-    </row>
-    <row r="31" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="50"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="47"/>
+    </row>
+    <row r="31" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="49"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="85"/>
-    </row>
-    <row r="32" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="50"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="27"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="47"/>
+    </row>
+    <row r="32" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.687499999999999</v>
       </c>
-      <c r="B32" s="88"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="50"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="93"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="85"/>
-    </row>
-    <row r="33" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="51"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="52"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="47"/>
+    </row>
+    <row r="33" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.69791666666666596</v>
       </c>
@@ -1885,13 +1926,14 @@
       <c r="E33" s="8"/>
       <c r="F33" s="9"/>
       <c r="G33" s="8"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="11"/>
-    </row>
-    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="8"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.70833333333333204</v>
       </c>
@@ -1900,13 +1942,14 @@
       <c r="F34" s="9"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="11"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I34" s="8"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -1919,514 +1962,506 @@
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
-    </row>
-    <row r="36" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
-      <c r="B36" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="33"/>
-    </row>
-    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="68"/>
+      <c r="D36" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="39"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="108"/>
+      <c r="I36" s="28"/>
+    </row>
+    <row r="37" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>0.34375</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="20"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="48" t="s">
-        <v>32</v>
+      <c r="C38" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="D38" s="20"/>
-      <c r="H38" s="17"/>
-    </row>
-    <row r="39" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B39" s="57"/>
-      <c r="C39" s="49"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="20"/>
-      <c r="H39" s="17"/>
-    </row>
-    <row r="40" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>0.375</v>
       </c>
-      <c r="B40" s="57"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="62"/>
-      <c r="F40" s="74"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="54"/>
+      <c r="F40" s="30"/>
       <c r="G40" s="21"/>
-      <c r="H40" s="17"/>
-    </row>
-    <row r="41" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="24"/>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>0.38541666666666702</v>
       </c>
-      <c r="B41" s="57"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="33"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="28"/>
       <c r="G41" s="21"/>
-      <c r="H41" s="17"/>
-    </row>
-    <row r="42" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="24"/>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="33"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="28"/>
       <c r="G42" s="21"/>
-      <c r="H42" s="17"/>
-    </row>
-    <row r="43" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="24"/>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>0.40625</v>
       </c>
-      <c r="B43" s="58"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="33"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="28"/>
       <c r="G43" s="21"/>
-      <c r="H43" s="17"/>
-    </row>
-    <row r="44" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="24"/>
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>0.41666666666666602</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="33"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="28"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="17"/>
-    </row>
-    <row r="45" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="24"/>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>0.42708333333333298</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="33"/>
+      <c r="C45" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="35"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="28"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="17"/>
-    </row>
-    <row r="46" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="24"/>
+      <c r="I45" s="17"/>
+    </row>
+    <row r="46" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>0.4375</v>
       </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="104" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" s="74"/>
-    </row>
-    <row r="47" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="56"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="29"/>
+      <c r="I46" s="30"/>
+    </row>
+    <row r="47" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>0.44791666666666602</v>
       </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="98"/>
-      <c r="H47" s="33"/>
-    </row>
-    <row r="48" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="56"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="28"/>
+    </row>
+    <row r="48" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="33"/>
-    </row>
-    <row r="49" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="56"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="28"/>
+    </row>
+    <row r="49" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>0.46875</v>
       </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="33"/>
-    </row>
-    <row r="50" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="56"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="28"/>
+    </row>
+    <row r="50" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B50" s="47"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="35"/>
-    </row>
-    <row r="51" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="57"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="33"/>
+    </row>
+    <row r="51" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="39"/>
-      <c r="D51" s="71" t="s">
+      <c r="C51" s="49"/>
+      <c r="D51" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="24" t="s">
+      <c r="E51" s="71"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="74"/>
-    </row>
-    <row r="52" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="29"/>
+      <c r="I51" s="30"/>
+    </row>
+    <row r="52" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="33"/>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="94"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="28"/>
+    </row>
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>0.5</v>
       </c>
-      <c r="B53" s="40"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="33"/>
-      <c r="L53" s="23"/>
-    </row>
-    <row r="54" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="94"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="28"/>
+      <c r="M53" s="23"/>
+    </row>
+    <row r="54" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B54" s="40"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="102"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="33"/>
-      <c r="L54" s="22"/>
-    </row>
-    <row r="55" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="94"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="28"/>
+      <c r="M54" s="22"/>
+    </row>
+    <row r="55" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>0.55208333333333337</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="35"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="22"/>
-    </row>
-    <row r="56" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="39"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="33"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="22"/>
+    </row>
+    <row r="56" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>0.5625</v>
       </c>
-      <c r="B56" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
+      <c r="B56" s="106" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="39"/>
+      <c r="D56" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
       <c r="G56" s="21"/>
-      <c r="H56" s="18"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="22"/>
-    </row>
-    <row r="57" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="24"/>
+      <c r="I56" s="18"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="22"/>
+    </row>
+    <row r="57" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>0.57291666666666596</v>
       </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
       <c r="G57" s="21"/>
-      <c r="H57" s="18"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="22"/>
-    </row>
-    <row r="58" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="24"/>
+      <c r="I57" s="18"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="22"/>
+    </row>
+    <row r="58" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
       <c r="G58" s="21"/>
-      <c r="H58" s="18"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="22"/>
-    </row>
-    <row r="59" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="24"/>
+      <c r="I58" s="18"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="22"/>
+    </row>
+    <row r="59" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>0.593749999999999</v>
       </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
       <c r="G59" s="21"/>
-      <c r="H59" s="18"/>
-    </row>
-    <row r="60" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H59" s="24"/>
+      <c r="I59" s="18"/>
+    </row>
+    <row r="60" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B60" s="25"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
       <c r="G60" s="21"/>
-      <c r="H60" s="18"/>
-    </row>
-    <row r="61" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="24"/>
+      <c r="I60" s="18"/>
+    </row>
+    <row r="61" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B61" s="25"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
       <c r="G61" s="21"/>
-      <c r="H61" s="18"/>
-    </row>
-    <row r="62" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="24"/>
+      <c r="I61" s="18"/>
+    </row>
+    <row r="62" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>0.624999999999999</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
       <c r="G62" s="21"/>
-      <c r="H62" s="18"/>
-    </row>
-    <row r="63" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="24"/>
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>0.63541666666666596</v>
       </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
       <c r="G63" s="21"/>
-      <c r="H63" s="18"/>
-    </row>
-    <row r="64" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H63" s="24"/>
+      <c r="I63" s="18"/>
+    </row>
+    <row r="64" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
       <c r="G64" s="21"/>
-      <c r="H64" s="18"/>
-    </row>
-    <row r="65" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="24"/>
+      <c r="I64" s="18"/>
+    </row>
+    <row r="65" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>0.656249999999999</v>
       </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
       <c r="G65" s="21"/>
-      <c r="H65" s="18"/>
-    </row>
-    <row r="66" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H65" s="24"/>
+      <c r="I65" s="18"/>
+    </row>
+    <row r="66" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
       <c r="G66" s="21"/>
-      <c r="H66" s="18"/>
-    </row>
-    <row r="67" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="24"/>
+      <c r="I66" s="18"/>
+    </row>
+    <row r="67" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B67" s="60"/>
-      <c r="C67" s="34"/>
-      <c r="H67" s="18"/>
-    </row>
-    <row r="68" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="36"/>
+      <c r="C67" s="32"/>
+      <c r="I67" s="18"/>
+    </row>
+    <row r="68" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B68" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="62"/>
-      <c r="H68" s="18"/>
-    </row>
-    <row r="69" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="107" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="54"/>
+      <c r="I68" s="18"/>
+    </row>
+    <row r="69" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>0.69791666666666663</v>
       </c>
-      <c r="B69" s="25"/>
-      <c r="C69" s="32"/>
-      <c r="H69" s="18"/>
-    </row>
-    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="35"/>
+      <c r="C69" s="39"/>
+      <c r="I69" s="18"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B70" s="25"/>
-      <c r="C70" s="32"/>
-      <c r="H70" s="18"/>
-    </row>
-    <row r="71" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="35"/>
+      <c r="C70" s="39"/>
+      <c r="I70" s="18"/>
+    </row>
+    <row r="71" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>0.71875</v>
       </c>
-      <c r="B71" s="25"/>
-      <c r="C71" s="32"/>
-      <c r="H71" s="18"/>
-    </row>
-    <row r="72" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="35"/>
+      <c r="C71" s="39"/>
+      <c r="I71" s="18"/>
+    </row>
+    <row r="72" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>0.72916666666666663</v>
       </c>
-      <c r="B72" s="25"/>
-      <c r="C72" s="32"/>
-      <c r="H72" s="18"/>
-    </row>
-    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="43" t="s">
+      <c r="B72" s="35"/>
+      <c r="C72" s="39"/>
+      <c r="I72" s="18"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="44"/>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="51" t="s">
+      <c r="C74" s="98"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="52"/>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="41" t="s">
+      <c r="C75" s="100"/>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="42"/>
+      <c r="C76" s="96"/>
     </row>
     <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G46:H50"/>
-    <mergeCell ref="G51:H55"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="K10:K15"/>
-    <mergeCell ref="I3:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="M3:M32"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="F20:F25"/>
-    <mergeCell ref="D27:E32"/>
-    <mergeCell ref="D40:F50"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="I23:K34"/>
-    <mergeCell ref="L9:L31"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="G20:H30"/>
-    <mergeCell ref="G16:H19"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G6:H8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D10:F15"/>
-    <mergeCell ref="B16:C19"/>
-    <mergeCell ref="D16:F19"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="E20:E25"/>
-    <mergeCell ref="B10:C15"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
     <mergeCell ref="B27:C32"/>
-    <mergeCell ref="I16:K22"/>
+    <mergeCell ref="J16:L22"/>
     <mergeCell ref="D51:F55"/>
     <mergeCell ref="B51:C55"/>
     <mergeCell ref="B76:C76"/>
@@ -2440,6 +2475,43 @@
     <mergeCell ref="C38:C43"/>
     <mergeCell ref="B56:C67"/>
     <mergeCell ref="B68:C72"/>
+    <mergeCell ref="D27:F32"/>
+    <mergeCell ref="B16:C19"/>
+    <mergeCell ref="D16:F19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="E20:E25"/>
+    <mergeCell ref="B10:C15"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="N3:N32"/>
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="D40:F50"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="J23:L34"/>
+    <mergeCell ref="M9:M31"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="G20:I30"/>
+    <mergeCell ref="G16:I19"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G6:I8"/>
+    <mergeCell ref="D10:F15"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G46:I50"/>
+    <mergeCell ref="G51:I55"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="L10:L15"/>
+    <mergeCell ref="J3:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="H10:H15"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="37" orientation="landscape" r:id="rId1"/>

--- a/JFWM2025_Program.xlsx
+++ b/JFWM2025_Program.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pers-uds-ds\marechlu\JFWM\JFWM2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\JFWM\JFWM2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21630" yWindow="0" windowWidth="14385" windowHeight="6135"/>
+    <workbookView xWindow="26355" yWindow="0" windowWidth="14385" windowHeight="6135"/>
   </bookViews>
   <sheets>
-    <sheet name="JFWM2024" sheetId="2" r:id="rId1"/>
+    <sheet name="JFWM2025" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" dpi="120" codePage="1252"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Japaneses academics</t>
   </si>
@@ -80,34 +80,6 @@
   </si>
   <si>
     <t>Presentation: Program &amp; "Challenge" - 10:00-10:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Challenge: Start
-13:15 - 14:45
-Groups : A, B
-</t>
-  </si>
-  <si>
-    <t>Challenge
-13:15 - 14:45
-Group : C</t>
-  </si>
-  <si>
-    <t>Challenge
-10:00 - 11:30
-Group : C</t>
-  </si>
-  <si>
-    <t>Mechatronics Challenge
-Work in group
-8:15 - 09:45
-Groups : A, B</t>
-  </si>
-  <si>
-    <t>Mechatronics Challenge
-Work in group
-10:00 - 11:30
-Groups : A, C</t>
   </si>
   <si>
     <r>
@@ -140,24 +112,199 @@
     <t>Friday Sept 19</t>
   </si>
   <si>
-    <t>90' Tutorial - 13:15 - 14:45
+    <t>180' Mechatronics Challenge
+ Work in Group
+Groups : A, B, C</t>
+  </si>
+  <si>
+    <t>Monday Sept 22</t>
+  </si>
+  <si>
+    <t>Thursday Sept 23</t>
+  </si>
+  <si>
+    <t>Wednesday Sept 24</t>
+  </si>
+  <si>
+    <t>Sat.Sept 20</t>
+  </si>
+  <si>
+    <t>Sun. Sept 21</t>
+  </si>
+  <si>
+    <t>Lunch break
+11:30-14:00</t>
+  </si>
+  <si>
+    <t>Mechatronics Challenge
+Work in group
+8:15 - 09:45
+Groups : A, C</t>
+  </si>
+  <si>
+    <t>Mechatronics Challenge
+Work in group
+10:00 - 11:30
+Groups : A, B</t>
+  </si>
+  <si>
+    <t>90' Lecture
+10:15 - 11:45
 H. Sawada
 Image processing for Mechatronics
-CXXX - Group : C</t>
+B104</t>
   </si>
   <si>
     <t>90' Lecture
 10:00 - 11:30
 T. Fujita, University of Hyogo, JP
 IoT modules &amp; its tutorial by using SBC
-BXXX</t>
-  </si>
-  <si>
-    <t>90' Lecture
-10:15 - 11:45
+B104</t>
+  </si>
+  <si>
+    <t>90' Lecture 
+ 8:15 - 9:45
+Y. Suzuki, University of Tokyo
+Design of broadband vibration energy harvesting device
+B104</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EXAM
+9:00 - 10:00  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>B104</t>
+    </r>
+  </si>
+  <si>
+    <t>90' Tutorial - 13:15 - 14:45
 H. Sawada
 Image processing for Mechatronics
-BXXX</t>
+C213 - Group : C</t>
+  </si>
+  <si>
+    <t>90' Tutorial - 13:15 - 14:45
+H. Sawada
+Image processing for Mechatronics
+C213 - Group : B</t>
+  </si>
+  <si>
+    <t>90' Practical work
+13:15 - 14:45
+T. Fujita
+IoT modules tutorial using SBC
+C214 - Group : A</t>
+  </si>
+  <si>
+    <t>90' Practical work
+10:00 - 11:30
+Y. Suzuki
+Design of broadband vibration energy harvesting device
+C114 - Group : A</t>
+  </si>
+  <si>
+    <t>90' Tutorial - 10:15 - 11:45
+H. Sawada
+Image processing for Mechatronics
+C213 - Group : A</t>
+  </si>
+  <si>
+    <t>90' Practical work
+10:00 - 11:30
+T. Fujita
+IoT modules tutorial using SBC
+C214 - Group : C</t>
+  </si>
+  <si>
+    <t>90' Practical work
+10:15 - 11:45
+T. Fujita
+IoT modules tutorial using SBC
+C214 - Group : B</t>
+  </si>
+  <si>
+    <t>90' Practical work
+8:15 - 09:45
+Y. Suzuki
+Design of broadband vibration energy harvesting device
+C114 - Group : B</t>
+  </si>
+  <si>
+    <t>90' Practical work
+10:00 - 11:30
+Y. Suzuki
+Design of broadband vibration energy harvesting device
+C114 - Group : C</t>
+  </si>
+  <si>
+    <t>Industrial Site Visit PILOT
+PILOT
+Allonzier-la-Caille
+13:15 - 17:15</t>
+  </si>
+  <si>
+    <t>Conferences
+Research &amp; Industry Keynote
+| TOKYO UNIVERSITY  | HYOGO UNIVERSITY  | 
+|  UGITECH  |  LISTIC Lab |
+13:15-16:15
+B104</t>
+  </si>
+  <si>
+    <t>9:00 - 9:45
+45' Keynote   H. Sawada
+AI
+B104</t>
+  </si>
+  <si>
+    <t>Roundtable Discussion
+Bureau Consulaire du Japon à Lyon
+| AURA ENTREPRISES |  PFEIFFER VACCUM  | 
+| NTN Europe |  LISTIC Lab |
+16:30-17:30
+B104</t>
+  </si>
+  <si>
+    <t>Mechatronics Challenge
+15:00 - 16:30
+Groups : A, B, C</t>
+  </si>
+  <si>
+    <t>Mechatronics Challenge: Start
+15:00 - 16:30
+Groups : A, B, C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mechatronics Challenge: Start
+13:15 - 14:45
+Groups : A, B
+</t>
+  </si>
+  <si>
+    <t>Mechatronics Challenge
+13:15 - 14:45
+Group : C</t>
+  </si>
+  <si>
+    <t>Mechatronics Challenge
+10:00 - 11:30
+Group : B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mechatronics Challenge: Start
+10:15 - 11:45
+Groups : C
+</t>
   </si>
   <si>
     <r>
@@ -172,75 +319,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> BXXX</t>
+      <t xml:space="preserve"> B104</t>
     </r>
-  </si>
-  <si>
-    <t>90' Tutorial - 13:15 - 14:45
-H. Sawada
-Image processing for Mechatronics
-CXXX - Group : B</t>
-  </si>
-  <si>
-    <t>180' Mechatronics Challenge
- Work in Group
-Groups : A, B, C</t>
-  </si>
-  <si>
-    <t>90' Practical work
-13:15 - 14:45
-T. Fujita
-IoT modules tutorial using SBC
-CXXX - Group : A</t>
-  </si>
-  <si>
-    <t>Monday Sept 22</t>
-  </si>
-  <si>
-    <t>90' Practical work
-10:00 - 11:30
-Y. Suzuki
-Design of broadband vibration energy harvesting device
-CXXX - Group : B</t>
-  </si>
-  <si>
-    <t>90' Practical work
-8:15 - 09:45
-Y. Suzuki
-Design of broadband vibration energy harvesting device
-CXXX - Group : C</t>
-  </si>
-  <si>
-    <t>90' Practical work
-10:00 - 11:30
-T. Fujita
-IoT modules tutorial using SBC
-CXXX - Group : B</t>
-  </si>
-  <si>
-    <t>90' Practical work
-10:00 - 11:30
-Y. Suzuki
-Design of broadband vibration energy harvesting device
-CXXX - Group : A</t>
-  </si>
-  <si>
-    <t>Industrial Site Visit
-TO BE DEFINED
-XXXXXX
-14:00 - 16:00</t>
-  </si>
-  <si>
-    <t>90' Lecture 
- 8:15 - 9:45
-Y. Suzuki, University of Tokyo
-Design of broadband vibration energy harvesting device
-BXXX</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Mechatronics Challenge
- Presentations, Jury deliberations &amp; awards
+ Presentations, Jury deliberations &amp; Awards
 10:00 - 11:30  
 </t>
     </r>
@@ -253,79 +338,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>BXXX</t>
+      <t>B104</t>
     </r>
   </si>
   <si>
-    <t>Thursday Sept 23</t>
-  </si>
-  <si>
-    <t>Wednesday Sept 24</t>
-  </si>
-  <si>
-    <t>Sat.Sept 20</t>
-  </si>
-  <si>
-    <t>Sun. Sept 21</t>
-  </si>
-  <si>
-    <t>Conferences
-Research Keynote
-13:15-17:30
-BXXX</t>
-  </si>
-  <si>
-    <t>Conferences
-Roundtable Discussion
-16:00-17:30
-BXXX</t>
-  </si>
-  <si>
-    <t>Lunch break
-11:30-14:00</t>
-  </si>
-  <si>
-    <t>Challenge: Start
-15:00 - 16:30
-Groups : A, B, C</t>
-  </si>
-  <si>
-    <t>90' Tutorial - 10:15 - 11:45
-H. Sawada
-Image processing for Mechatronics
-CXXX - Group : A</t>
-  </si>
-  <si>
-    <t>45' Keynote
-9:00 - 9:45
-H. Sawada
-AI
-BXXX</t>
-  </si>
-  <si>
-    <t>90' Practical work
-10:15 - 11:45
-T. Fujita
-IoT modules tutorial using SBC
-CXXX - Group : C</t>
-  </si>
-  <si>
-    <t>Challenge
-15:00 - 16:30
-Groups : A, B, C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Challenge: Start
-10:15 - 11:45
-Groups : B
-</t>
+    <t>Reception drink</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +428,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -639,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -685,49 +717,116 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -737,47 +836,82 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -789,52 +923,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -847,88 +945,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -939,10 +974,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF7996A2"/>
+      <color rgb="FF004974"/>
       <color rgb="FFF13B99"/>
-      <color rgb="FF004974"/>
       <color rgb="FF00B9F2"/>
-      <color rgb="FF7996A2"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1256,10 +1291,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,35 +1311,35 @@
     <col min="10" max="10" width="25.5703125" customWidth="1"/>
     <col min="11" max="11" width="25.28515625" customWidth="1"/>
     <col min="12" max="12" width="27.42578125" customWidth="1"/>
-    <col min="13" max="13" width="23.85546875" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="36.42578125" customWidth="1"/>
+    <col min="14" max="14" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="67" t="s">
-        <v>17</v>
+      <c r="B1" s="82" t="s">
+        <v>12</v>
       </c>
       <c r="C1" s="68"/>
-      <c r="D1" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="37" t="s">
+      <c r="D1" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="106"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="109"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="19" t="s">
-        <v>38</v>
-      </c>
       <c r="N1" s="5" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1316,9 +1351,9 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="16"/>
       <c r="K2" s="13"/>
       <c r="L2" s="10"/>
@@ -1334,16 +1369,16 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="39"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="40"/>
+      <c r="L3" s="53"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="46" t="s">
+      <c r="N3" s="88" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1356,14 +1391,14 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="39"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="53"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="47"/>
+      <c r="N4" s="89"/>
     </row>
     <row r="5" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1374,423 +1409,424 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="39"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="53"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="47"/>
+      <c r="N5" s="89"/>
     </row>
     <row r="6" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.38541666666666702</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="72"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="39"/>
+      <c r="G6" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="98"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="53"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="47"/>
+      <c r="N6" s="89"/>
     </row>
     <row r="7" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="73"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="39"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="53"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="47"/>
+      <c r="N7" s="89"/>
     </row>
     <row r="8" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.40625</v>
       </c>
-      <c r="B8" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="75"/>
+      <c r="B8" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="86"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="39"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="53"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="47"/>
+      <c r="N8" s="89"/>
     </row>
     <row r="9" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.41666666666666602</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="87"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="44" t="s">
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="45"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="62" t="s">
+      <c r="K9" s="50"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="N9" s="47"/>
+      <c r="N9" s="89"/>
     </row>
     <row r="10" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.42708333333333298</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="40" t="s">
+      <c r="B10" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="81"/>
+      <c r="D10" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="80"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="40" t="s">
+      <c r="K10" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="35"/>
-      <c r="N10" s="47"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="89"/>
     </row>
     <row r="11" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="47"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="89"/>
     </row>
     <row r="12" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.44791666666666602</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="47"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="89"/>
     </row>
     <row r="13" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="47"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="89"/>
     </row>
     <row r="14" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="47"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="89"/>
     </row>
     <row r="15" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="47"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="89"/>
     </row>
     <row r="16" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="63" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="63" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="71"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" s="71"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="47"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="89"/>
     </row>
     <row r="17" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.5</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="47"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="89"/>
     </row>
     <row r="18" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="47"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="89"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="47"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="89"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B20" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="109"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="47"/>
+      <c r="B20" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="97"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="89"/>
     </row>
     <row r="21" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.57291666666666596</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="47"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="89"/>
     </row>
     <row r="22" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="47"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="89"/>
     </row>
     <row r="23" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.593749999999999</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="47"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="93"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="89"/>
     </row>
     <row r="24" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="47"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="89"/>
     </row>
     <row r="25" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="47"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="89"/>
     </row>
     <row r="26" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -1801,122 +1837,128 @@
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="47"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="89"/>
     </row>
     <row r="27" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.63541666666666596</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="110"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="47"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="75"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="89"/>
     </row>
     <row r="28" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="47"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="89"/>
     </row>
     <row r="29" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.656249999999999</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="47"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="89"/>
     </row>
     <row r="30" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="47"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="89"/>
     </row>
     <row r="31" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="27"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="47"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="89"/>
     </row>
     <row r="32" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.687499999999999</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="52"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="47"/>
-    </row>
-    <row r="33" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N32" s="89"/>
+    </row>
+    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.69791666666666596</v>
       </c>
@@ -1927,13 +1969,14 @@
       <c r="F33" s="9"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
       <c r="M33" s="10"/>
       <c r="N33" s="11"/>
     </row>
-    <row r="34" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.70833333333333204</v>
       </c>
@@ -1943,13 +1986,13 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
       <c r="M34" s="10"/>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -1964,530 +2007,1116 @@
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
-      <c r="B36" s="102" t="s">
-        <v>28</v>
+      <c r="B36" s="67" t="s">
+        <v>17</v>
       </c>
       <c r="C36" s="68"/>
-      <c r="D36" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="108"/>
-      <c r="I36" s="28"/>
-    </row>
-    <row r="37" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="53"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="106"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>0.34375</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="20"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="18"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B38" s="103" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="I38" s="17"/>
-    </row>
-    <row r="39" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+    </row>
+    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B39" s="104"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="20"/>
-      <c r="I39" s="17"/>
-    </row>
-    <row r="40" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="70"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>0.375</v>
       </c>
-      <c r="B40" s="104"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="30"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="74"/>
+      <c r="F40" s="81"/>
       <c r="G40" s="21"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="17"/>
-    </row>
-    <row r="41" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="21"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+    </row>
+    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>0.38541666666666702</v>
       </c>
-      <c r="B41" s="104"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="17"/>
-    </row>
-    <row r="42" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="70"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="105"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+    </row>
+    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B42" s="104"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="17"/>
-    </row>
-    <row r="43" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="70"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+    </row>
+    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>0.40625</v>
       </c>
-      <c r="B43" s="105"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="17"/>
-    </row>
-    <row r="44" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="71"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+    </row>
+    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>0.41666666666666602</v>
       </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="17"/>
-    </row>
-    <row r="45" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="39"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+    </row>
+    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>0.42708333333333298</v>
       </c>
-      <c r="B45" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="17"/>
-    </row>
-    <row r="46" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="39"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+    </row>
+    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>0.4375</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H46" s="29"/>
-      <c r="I46" s="30"/>
-    </row>
-    <row r="47" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="59"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" s="105"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+    </row>
+    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>0.44791666666666602</v>
       </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="28"/>
-    </row>
-    <row r="48" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="59"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+    </row>
+    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="28"/>
-    </row>
-    <row r="49" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="59"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+    </row>
+    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>0.46875</v>
       </c>
-      <c r="B49" s="56"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="28"/>
-    </row>
-    <row r="50" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="59"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+    </row>
+    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B50" s="57"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="33"/>
-    </row>
-    <row r="51" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="60"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+    </row>
+    <row r="51" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="49"/>
-      <c r="D51" s="63" t="s">
+      <c r="C51" s="26"/>
+      <c r="D51" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="71"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="29"/>
-      <c r="I51" s="30"/>
-    </row>
-    <row r="52" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="32"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="105"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+    </row>
+    <row r="52" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B52" s="94"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="28"/>
-    </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="52"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+    </row>
+    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>0.5</v>
       </c>
-      <c r="B53" s="94"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="28"/>
-      <c r="M53" s="23"/>
-    </row>
-    <row r="54" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="52"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+    </row>
+    <row r="54" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B54" s="94"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="93"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="28"/>
-      <c r="M54" s="22"/>
-    </row>
-    <row r="55" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="52"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+    </row>
+    <row r="55" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>0.55208333333333337</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="33"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
       <c r="L55" s="21"/>
-      <c r="M55" s="22"/>
-    </row>
-    <row r="56" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M55" s="20"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+    </row>
+    <row r="56" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>0.5625</v>
       </c>
-      <c r="B56" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
+      <c r="B56" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="53"/>
+      <c r="D56" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
       <c r="G56" s="21"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="18"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
       <c r="L56" s="21"/>
-      <c r="M56" s="22"/>
-    </row>
-    <row r="57" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M56" s="20"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+    </row>
+    <row r="57" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>0.57291666666666596</v>
       </c>
-      <c r="B57" s="35"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
       <c r="G57" s="21"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="18"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
       <c r="L57" s="21"/>
-      <c r="M57" s="22"/>
-    </row>
-    <row r="58" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M57" s="20"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+    </row>
+    <row r="58" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
       <c r="G58" s="21"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="18"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
       <c r="L58" s="21"/>
-      <c r="M58" s="22"/>
-    </row>
-    <row r="59" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M58" s="20"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+    </row>
+    <row r="59" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>0.593749999999999</v>
       </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
       <c r="G59" s="21"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="18"/>
-    </row>
-    <row r="60" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H59" s="21"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+    </row>
+    <row r="60" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B60" s="35"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
       <c r="G60" s="21"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="18"/>
-    </row>
-    <row r="61" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="21"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+    </row>
+    <row r="61" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B61" s="35"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
       <c r="G61" s="21"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="18"/>
-    </row>
-    <row r="62" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="21"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+    </row>
+    <row r="62" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>0.624999999999999</v>
       </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
       <c r="G62" s="21"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="18"/>
-    </row>
-    <row r="63" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="21"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+    </row>
+    <row r="63" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>0.63541666666666596</v>
       </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
       <c r="G63" s="21"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="18"/>
-    </row>
-    <row r="64" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H63" s="21"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+    </row>
+    <row r="64" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
       <c r="G64" s="21"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="18"/>
-    </row>
-    <row r="65" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="21"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+    </row>
+    <row r="65" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>0.656249999999999</v>
       </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
       <c r="G65" s="21"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="18"/>
-    </row>
-    <row r="66" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H65" s="21"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+    </row>
+    <row r="66" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
       <c r="G66" s="21"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="18"/>
-    </row>
-    <row r="67" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="21"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+    </row>
+    <row r="67" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B67" s="36"/>
-      <c r="C67" s="32"/>
-      <c r="I67" s="18"/>
-    </row>
-    <row r="68" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="42"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+    </row>
+    <row r="68" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B68" s="107" t="s">
+      <c r="B68" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C68" s="54"/>
-      <c r="I68" s="18"/>
-    </row>
-    <row r="69" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="74"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+    </row>
+    <row r="69" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>0.69791666666666663</v>
       </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="39"/>
-      <c r="I69" s="18"/>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="39"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+    </row>
+    <row r="70" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B70" s="35"/>
-      <c r="C70" s="39"/>
-      <c r="I70" s="18"/>
-    </row>
-    <row r="71" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="39"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+    </row>
+    <row r="71" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>0.71875</v>
       </c>
-      <c r="B71" s="35"/>
-      <c r="C71" s="39"/>
-      <c r="I71" s="18"/>
-    </row>
-    <row r="72" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="39"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+    </row>
+    <row r="72" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>0.72916666666666663</v>
       </c>
-      <c r="B72" s="35"/>
-      <c r="C72" s="39"/>
-      <c r="I72" s="18"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="97" t="s">
+      <c r="B72" s="39"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="111" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="52"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+    </row>
+    <row r="78" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
+      <c r="B78" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="98"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="99" t="s">
+      <c r="C78" s="57"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+    </row>
+    <row r="79" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="100"/>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="95" t="s">
+      <c r="C79" s="65"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+    </row>
+    <row r="80" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
+      <c r="B80" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="96"/>
-    </row>
-    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+    </row>
+    <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+    </row>
+    <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+    </row>
     <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="B27:C32"/>
-    <mergeCell ref="J16:L22"/>
-    <mergeCell ref="D51:F55"/>
-    <mergeCell ref="B51:C55"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D56:F66"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="B56:C67"/>
-    <mergeCell ref="B68:C72"/>
-    <mergeCell ref="D27:F32"/>
-    <mergeCell ref="B16:C19"/>
-    <mergeCell ref="D16:F19"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="E20:E25"/>
-    <mergeCell ref="B10:C15"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
+  <mergeCells count="54">
+    <mergeCell ref="B73:C74"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G46:I50"/>
+    <mergeCell ref="G51:I55"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="L10:L15"/>
+    <mergeCell ref="J3:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="H10:H15"/>
     <mergeCell ref="N3:N32"/>
     <mergeCell ref="F20:F25"/>
     <mergeCell ref="D40:F50"/>
@@ -2502,16 +3131,35 @@
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="G6:I8"/>
     <mergeCell ref="D10:F15"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G46:I50"/>
-    <mergeCell ref="G51:I55"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="L10:L15"/>
-    <mergeCell ref="J3:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="K10:K15"/>
-    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="G41:I45"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B16:C19"/>
+    <mergeCell ref="D16:F19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="E20:E25"/>
+    <mergeCell ref="B10:C15"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="B27:C32"/>
+    <mergeCell ref="J16:L22"/>
+    <mergeCell ref="D51:F55"/>
+    <mergeCell ref="B51:C55"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D56:F66"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="B56:C67"/>
+    <mergeCell ref="B68:C72"/>
+    <mergeCell ref="D27:F32"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="37" orientation="landscape" r:id="rId1"/>
